--- a/experiments/00_general/results/statistics/stats_cortisol_features_within_ideal_bed_time.xlsx
+++ b/experiments/00_general/results/statistics/stats_cortisol_features_within_ideal_bed_time.xlsx
@@ -146,25 +146,25 @@
     <t>two-sided</t>
   </si>
   <si>
+    <t>0.17</t>
+  </si>
+  <si>
     <t>0.172</t>
   </si>
   <si>
-    <t>0.173</t>
-  </si>
-  <si>
-    <t>0.185</t>
+    <t>0.193</t>
+  </si>
+  <si>
+    <t>0.177</t>
+  </si>
+  <si>
+    <t>0.174</t>
+  </si>
+  <si>
+    <t>0.175</t>
   </si>
   <si>
     <t>0.176</t>
-  </si>
-  <si>
-    <t>0.177</t>
-  </si>
-  <si>
-    <t>0.18</t>
-  </si>
-  <si>
-    <t>0.174</t>
   </si>
   <si>
     <t>Pairwise t-Tests</t>
@@ -610,10 +610,10 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>0.9795</v>
+        <v>0.9812</v>
       </c>
       <c r="D3">
-        <v>0.3537</v>
+        <v>0.3953</v>
       </c>
       <c r="E3" t="b">
         <v>1</v>
@@ -642,10 +642,10 @@
         <v>1</v>
       </c>
       <c r="C5">
-        <v>0.9742</v>
+        <v>0.972</v>
       </c>
       <c r="D5">
-        <v>0.1927</v>
+        <v>0.1296</v>
       </c>
       <c r="E5" t="b">
         <v>1</v>
@@ -674,10 +674,10 @@
         <v>1</v>
       </c>
       <c r="C7">
-        <v>0.957</v>
+        <v>0.9611</v>
       </c>
       <c r="D7">
-        <v>0.0239</v>
+        <v>0.0325</v>
       </c>
       <c r="E7" t="b">
         <v>0</v>
@@ -706,10 +706,10 @@
         <v>1</v>
       </c>
       <c r="C9">
-        <v>0.9553</v>
+        <v>0.9539</v>
       </c>
       <c r="D9">
-        <v>0.0197</v>
+        <v>0.0135</v>
       </c>
       <c r="E9" t="b">
         <v>0</v>
@@ -738,10 +738,10 @@
         <v>1</v>
       </c>
       <c r="C11">
-        <v>0.9638</v>
+        <v>0.9649</v>
       </c>
       <c r="D11">
-        <v>0.0541</v>
+        <v>0.0526</v>
       </c>
       <c r="E11" t="b">
         <v>1</v>
@@ -770,10 +770,10 @@
         <v>1</v>
       </c>
       <c r="C13">
-        <v>0.9671</v>
+        <v>0.9658</v>
       </c>
       <c r="D13">
-        <v>0.0808</v>
+        <v>0.0591</v>
       </c>
       <c r="E13" t="b">
         <v>1</v>
@@ -802,10 +802,10 @@
         <v>1</v>
       </c>
       <c r="C15">
-        <v>0.9704</v>
+        <v>0.9673</v>
       </c>
       <c r="D15">
-        <v>0.1216</v>
+        <v>0.0713</v>
       </c>
       <c r="E15" t="b">
         <v>1</v>
@@ -876,10 +876,10 @@
         <v>21</v>
       </c>
       <c r="C3">
-        <v>0.8439</v>
+        <v>1.0895</v>
       </c>
       <c r="D3">
-        <v>0.3596</v>
+        <v>0.2981</v>
       </c>
       <c r="E3" t="b">
         <v>1</v>
@@ -893,10 +893,10 @@
         <v>21</v>
       </c>
       <c r="C4">
-        <v>0.7242</v>
+        <v>0.4149</v>
       </c>
       <c r="D4">
-        <v>0.396</v>
+        <v>0.5204</v>
       </c>
       <c r="E4" t="b">
         <v>1</v>
@@ -910,10 +910,10 @@
         <v>21</v>
       </c>
       <c r="C5">
-        <v>0.0027</v>
+        <v>0.009900000000000001</v>
       </c>
       <c r="D5">
-        <v>0.9585</v>
+        <v>0.9208</v>
       </c>
       <c r="E5" t="b">
         <v>1</v>
@@ -927,10 +927,10 @@
         <v>21</v>
       </c>
       <c r="C6">
-        <v>0.8827</v>
+        <v>0.6083</v>
       </c>
       <c r="D6">
-        <v>0.3489</v>
+        <v>0.4365</v>
       </c>
       <c r="E6" t="b">
         <v>1</v>
@@ -944,10 +944,10 @@
         <v>21</v>
       </c>
       <c r="C7">
-        <v>0.489</v>
+        <v>0.5971</v>
       </c>
       <c r="D7">
-        <v>0.4854</v>
+        <v>0.4408</v>
       </c>
       <c r="E7" t="b">
         <v>1</v>
@@ -961,10 +961,10 @@
         <v>21</v>
       </c>
       <c r="C8">
-        <v>0.5665</v>
+        <v>0.37</v>
       </c>
       <c r="D8">
-        <v>0.4527</v>
+        <v>0.5438</v>
       </c>
       <c r="E8" t="b">
         <v>1</v>
@@ -978,10 +978,10 @@
         <v>21</v>
       </c>
       <c r="C9">
-        <v>0.0003</v>
+        <v>0.0221</v>
       </c>
       <c r="D9">
-        <v>0.987</v>
+        <v>0.882</v>
       </c>
       <c r="E9" t="b">
         <v>1</v>
@@ -1043,16 +1043,16 @@
         <v>1</v>
       </c>
       <c r="E3">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="F3">
-        <v>0.0039</v>
+        <v>0.01</v>
       </c>
       <c r="G3">
-        <v>0.9500999999999999</v>
+        <v>0.9203</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.0001</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1069,16 +1069,16 @@
         <v>1</v>
       </c>
       <c r="E4">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="F4">
-        <v>0.0194</v>
+        <v>0.0385</v>
       </c>
       <c r="G4">
-        <v>0.8895</v>
+        <v>0.8447</v>
       </c>
       <c r="H4">
-        <v>0.0001</v>
+        <v>0.0002</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="E5">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="F5">
-        <v>0.1631</v>
+        <v>0.2799</v>
       </c>
       <c r="G5">
-        <v>0.6869</v>
+        <v>0.5974</v>
       </c>
       <c r="H5">
-        <v>0.001</v>
+        <v>0.0017</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1121,16 +1121,16 @@
         <v>1</v>
       </c>
       <c r="E6">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="F6">
-        <v>0.06619999999999999</v>
+        <v>0.1009</v>
       </c>
       <c r="G6">
-        <v>0.7973</v>
+        <v>0.7511</v>
       </c>
       <c r="H6">
-        <v>0.0004</v>
+        <v>0.0005999999999999999</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1147,13 +1147,13 @@
         <v>1</v>
       </c>
       <c r="E7">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="F7">
-        <v>0.0614</v>
+        <v>0.06</v>
       </c>
       <c r="G7">
-        <v>0.8046</v>
+        <v>0.8067</v>
       </c>
       <c r="H7">
         <v>0.0004</v>
@@ -1173,16 +1173,16 @@
         <v>1</v>
       </c>
       <c r="E8">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="F8">
-        <v>0.1165</v>
+        <v>0.0755</v>
       </c>
       <c r="G8">
-        <v>0.7333</v>
+        <v>0.7839</v>
       </c>
       <c r="H8">
-        <v>0.0007</v>
+        <v>0.0005</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1199,16 +1199,16 @@
         <v>1</v>
       </c>
       <c r="E9">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="F9">
-        <v>0.0318</v>
+        <v>0.08500000000000001</v>
       </c>
       <c r="G9">
-        <v>0.8587</v>
+        <v>0.7711</v>
       </c>
       <c r="H9">
-        <v>0.0002</v>
+        <v>0.0005</v>
       </c>
     </row>
   </sheetData>
@@ -1294,25 +1294,25 @@
         <v>1</v>
       </c>
       <c r="H3">
-        <v>-0.06419999999999999</v>
+        <v>-0.1027</v>
       </c>
       <c r="I3">
-        <v>147.5793</v>
+        <v>155.358</v>
       </c>
       <c r="J3" t="s">
         <v>41</v>
       </c>
       <c r="K3">
-        <v>0.9489</v>
+        <v>0.9183</v>
       </c>
       <c r="L3" t="s">
         <v>42</v>
       </c>
       <c r="M3">
-        <v>-0.009900000000000001</v>
+        <v>-0.0156</v>
       </c>
       <c r="N3">
-        <v>0.9489</v>
+        <v>0.9183</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -1338,25 +1338,25 @@
         <v>1</v>
       </c>
       <c r="H4">
-        <v>0.133</v>
+        <v>0.1892</v>
       </c>
       <c r="I4">
-        <v>116.5242</v>
+        <v>125.4377</v>
       </c>
       <c r="J4" t="s">
         <v>41</v>
       </c>
       <c r="K4">
-        <v>0.8944</v>
+        <v>0.8502</v>
       </c>
       <c r="L4" t="s">
         <v>43</v>
       </c>
       <c r="M4">
-        <v>0.022</v>
+        <v>0.0306</v>
       </c>
       <c r="N4">
-        <v>0.8944</v>
+        <v>0.8502</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -1382,25 +1382,25 @@
         <v>1</v>
       </c>
       <c r="H5">
-        <v>-0.4056</v>
+        <v>-0.5328000000000001</v>
       </c>
       <c r="I5">
-        <v>138.6758</v>
+        <v>147.3162</v>
       </c>
       <c r="J5" t="s">
         <v>41</v>
       </c>
       <c r="K5">
-        <v>0.6856</v>
+        <v>0.595</v>
       </c>
       <c r="L5" t="s">
         <v>44</v>
       </c>
       <c r="M5">
-        <v>-0.0639</v>
+        <v>-0.08260000000000001</v>
       </c>
       <c r="N5">
-        <v>0.6856</v>
+        <v>0.595</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -1426,25 +1426,25 @@
         <v>1</v>
       </c>
       <c r="H6">
-        <v>0.2478</v>
+        <v>0.3082</v>
       </c>
       <c r="I6">
-        <v>119.6057</v>
+        <v>128.5122</v>
       </c>
       <c r="J6" t="s">
         <v>41</v>
       </c>
       <c r="K6">
-        <v>0.8047</v>
+        <v>0.7584</v>
       </c>
       <c r="L6" t="s">
         <v>45</v>
       </c>
       <c r="M6">
-        <v>0.0407</v>
+        <v>0.0496</v>
       </c>
       <c r="N6">
-        <v>0.8047</v>
+        <v>0.7584</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -1470,25 +1470,25 @@
         <v>1</v>
       </c>
       <c r="H7">
-        <v>-0.2515</v>
+        <v>-0.2489</v>
       </c>
       <c r="I7">
-        <v>143.2689</v>
+        <v>151.2849</v>
       </c>
       <c r="J7" t="s">
         <v>41</v>
       </c>
       <c r="K7">
-        <v>0.8018</v>
+        <v>0.8038</v>
       </c>
       <c r="L7" t="s">
         <v>46</v>
       </c>
       <c r="M7">
-        <v>-0.0392</v>
+        <v>-0.0383</v>
       </c>
       <c r="N7">
-        <v>0.8018</v>
+        <v>0.8038</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -1514,25 +1514,25 @@
         <v>1</v>
       </c>
       <c r="H8">
-        <v>-0.332</v>
+        <v>-0.2689</v>
       </c>
       <c r="I8">
-        <v>124.0602</v>
+        <v>132.9081</v>
       </c>
       <c r="J8" t="s">
         <v>41</v>
       </c>
       <c r="K8">
-        <v>0.7403999999999999</v>
+        <v>0.7885</v>
       </c>
       <c r="L8" t="s">
         <v>47</v>
       </c>
       <c r="M8">
-        <v>-0.054</v>
+        <v>-0.0429</v>
       </c>
       <c r="N8">
-        <v>0.7403999999999999</v>
+        <v>0.7885</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -1558,25 +1558,25 @@
         <v>1</v>
       </c>
       <c r="H9">
-        <v>0.1785</v>
+        <v>0.2926</v>
       </c>
       <c r="I9">
-        <v>137.0297</v>
+        <v>145.8583</v>
       </c>
       <c r="J9" t="s">
         <v>41</v>
       </c>
       <c r="K9">
-        <v>0.8586</v>
+        <v>0.7702</v>
       </c>
       <c r="L9" t="s">
         <v>48</v>
       </c>
       <c r="M9">
-        <v>0.0282</v>
+        <v>0.0455</v>
       </c>
       <c r="N9">
-        <v>0.8586</v>
+        <v>0.7702</v>
       </c>
     </row>
   </sheetData>
